--- a/docs/User_History/His_Us.xlsx
+++ b/docs/User_History/His_Us.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>Enunciado de la historia</t>
   </si>
@@ -139,13 +139,82 @@
   </si>
   <si>
     <t>Historias de Usuario Proyecto PET Manager</t>
+  </si>
+  <si>
+    <t>His4</t>
+  </si>
+  <si>
+    <t>Como Usuario de PET contratado</t>
+  </si>
+  <si>
+    <t>Necesito tener un resumen de los pacientes realizados</t>
+  </si>
+  <si>
+    <t>Con la Finalidad de ver los datos ingresados para cada paciente</t>
+  </si>
+  <si>
+    <t>Tener una pagina de visualizacion de los pacientes realizados con sus dosis , hora y mL</t>
+  </si>
+  <si>
+    <t>En caso de que exista algun paciente ingresado</t>
+  </si>
+  <si>
+    <t>Cuando se seleccione la opcion Resumen del Menu</t>
+  </si>
+  <si>
+    <t>El sistema mostrará una pagina con un resumen de los datos ingresados.</t>
+  </si>
+  <si>
+    <t>Mensaje de advertencia</t>
+  </si>
+  <si>
+    <t>His5</t>
+  </si>
+  <si>
+    <t>Necesito tener una pagina de inicio con logo.</t>
+  </si>
+  <si>
+    <t>Con la Finalidad de mejorar la estetica de la pagina inicio</t>
+  </si>
+  <si>
+    <t>En caso de quese ingrese a la pagina de inicio</t>
+  </si>
+  <si>
+    <t>Cuando se ingrese la direccion web de la app</t>
+  </si>
+  <si>
+    <t>El sistema mostrará la pagina de inicio con un logo personalizado de PETManager.</t>
+  </si>
+  <si>
+    <t>His6</t>
+  </si>
+  <si>
+    <t>Necesito Modificar  datos ingresados</t>
+  </si>
+  <si>
+    <t>Con la Finalidad de por modificar en caso de un ingreso erroneo los datos registrados</t>
+  </si>
+  <si>
+    <t>ingesar a la direccion de la aplicación y ver en pagina inicial un logo a corde a la app.</t>
+  </si>
+  <si>
+    <t>Poder elegir el dato a modificar y poder modificarlo.</t>
+  </si>
+  <si>
+    <t>Cuando se seleccione en el Menul la opcion de Modificacion.</t>
+  </si>
+  <si>
+    <t>Cuando se seleccione en el Menu  la opcion de Modificacion de  Dato</t>
+  </si>
+  <si>
+    <t>Se visualizara un mensaje que indique que no se han realizado pacientes para modificar.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,6 +247,12 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -226,7 +301,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -236,8 +311,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -253,16 +332,29 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -592,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J11"/>
+  <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -797,16 +889,134 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+    <row r="11" spans="2:10" ht="45">
+      <c r="B11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="45">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="45">
+      <c r="B13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="60">
+      <c r="B14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="45">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
